--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689257.633131459</v>
+        <v>643980.496335886</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.86922677</v>
+        <v>6110993.067254429</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8551844.016552845</v>
+        <v>9511853.175357049</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>39.7012200561197</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>297.4419710579471</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>89.59687541850867</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.40229248514485</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47.38664856089932</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>169.5799223726274</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663202</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663202</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>88.09081815943109</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>13.45644170423187</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663202</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663202</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>153.2230134806003</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>287.0091115578675</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>81.021801584252</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
-        <v>86.97068393466267</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>92.70483088733128</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>20.24383416187933</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>131.9809553984397</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>386.0531312245766</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>88.11276492133702</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>85.17289288835038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>59.32996291532795</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.6216357996072</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>168.1158122680957</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>150.5582247486535</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.89700561060548</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>53.54735467376803</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>166.6016392167423</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>55.6790433100436</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38.95447453777078</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>188.6059442291525</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>35.42676599590838</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.32304552311891</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>3.867365032348011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>251.2852794514143</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>185.0245626810881</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.08802744677213</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.93973193724197</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>137.9038626268947</v>
       </c>
       <c r="V29" t="n">
-        <v>25.87859906451649</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>64.32802064286928</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>160.296229179499</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.974680806263</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>125.0663096025706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>160.7365361851529</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>126.5388824951704</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>230.2267521569518</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>62.14231362775466</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5388824951709</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>55.67904331004355</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>20.75019519330523</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>173.5578851713666</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>7.76201957677768</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>141.1446905726939</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>181.7594728473274</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>303.6628046558608</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.9236777330948</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>81.46084344268529</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158252</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158252</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158252</v>
+        <v>934.567370137326</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158252</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8429936158252</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>2065.221161406443</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>734.5444774681634</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>583.2614020227597</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>393.841617006275</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897903</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897903</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828987</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>631.7841389438273</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>631.7841389438273</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>342.3669689068667</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>114.3774180088494</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>114.3774180088494</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.8222414097415</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>293.4024563932564</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>103.9826713767714</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330562</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330562</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>347.121819064476</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985592</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262266</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262266</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W5" t="n">
-        <v>482.8222414097415</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="X5" t="n">
-        <v>482.8222414097415</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.8222414097415</v>
+        <v>2218.876689164174</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189.4550762544326</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330562</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330562</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330562</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330562</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330562</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652808</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>736.5099833074709</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>736.5099833074709</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>736.5099833074709</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>736.5099833074709</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>736.5099833074709</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>547.0901982909858</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>357.6704132745007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829027</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829027</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829027</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829027</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829027</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829027</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702829027</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702829027</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230187</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829027</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829027</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1077.331341235883</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.331341235883</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D8" t="n">
-        <v>719.0656426291328</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E8" t="n">
-        <v>333.2773900308885</v>
+        <v>817.0785203735551</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809311</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809311</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809311</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904656</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904656</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904656</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561085</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561085</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300005</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.931181300005</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>377.0596808246756</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C9" t="n">
-        <v>202.6066515435486</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D9" t="n">
-        <v>202.6066515435486</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809311</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809311</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809311</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809311</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562336</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T9" t="n">
-        <v>1678.37787164191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U9" t="n">
-        <v>1450.276281775175</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V9" t="n">
-        <v>1215.124173543432</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W9" t="n">
-        <v>960.8868168152303</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>753.0353166096975</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y9" t="n">
-        <v>545.2750178447436</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.9636155141766</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C10" t="n">
-        <v>171.9636155141766</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>171.9636155141766</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>171.9636155141766</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>171.9636155141766</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>171.9636155141766</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141766</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>426.6481037200635</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>426.6481037200635</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>426.6481037200635</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U10" t="n">
-        <v>426.6481037200635</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V10" t="n">
-        <v>171.9636155141766</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="W10" t="n">
-        <v>171.9636155141766</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="X10" t="n">
-        <v>171.9636155141766</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.9636155141766</v>
+        <v>678.6720730524786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.504630229388</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.504630229388</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D11" t="n">
-        <v>1253.238931622638</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>867.4506790243936</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>456.464774234786</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.243802269322</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.10447029351</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.0549803959803</v>
+        <v>471.1308394896929</v>
       </c>
       <c r="C13" t="n">
-        <v>310.0549803959803</v>
+        <v>471.1308394896929</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959803</v>
+        <v>471.1308394896929</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>323.2177459072998</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U13" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V13" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="W13" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="X13" t="n">
-        <v>310.0549803959803</v>
+        <v>471.1308394896929</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.0549803959803</v>
+        <v>471.1308394896929</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796247</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939213</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324625</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
         <v>108.5090151927147</v>
@@ -5281,10 +5281,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052367</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181845</v>
+        <v>511.2489900899271</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181845</v>
+        <v>342.3128071620202</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>342.3128071620202</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>692.8974549201669</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181845</v>
+        <v>692.8974549201669</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308156</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367744</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760994</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.38442316275</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731422</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181387</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.14006334809</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372278</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5606,13 +5606,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596504</v>
@@ -5700,25 +5700,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438281</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379413</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>377.0996507379413</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X19" t="n">
-        <v>377.0996507379413</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.3070715944112</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097631</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490881</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926365</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>298.629863103029</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5755,16 +5755,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="21">
@@ -5852,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2695.175226737384</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="C22" t="n">
-        <v>2638.933768848451</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="D22" t="n">
-        <v>2638.933768848451</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>2638.933768848451</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>2638.933768848451</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="X22" t="n">
-        <v>3097.616270711153</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="Y22" t="n">
-        <v>2876.823691567623</v>
+        <v>252.7500180086501</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2196.097994299123</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.135477358711</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1468.86977875196</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1083.081526153716</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>672.0956213641086</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>257.0231712091051</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,25 +5989,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X23" t="n">
-        <v>2972.837166339056</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y23" t="n">
-        <v>2582.697834363245</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>218.3316393401806</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>218.3316393401806</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
         <v>214.4252100145765</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>218.3316393401806</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V25" t="n">
-        <v>218.3316393401806</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3316393401806</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="X25" t="n">
-        <v>218.3316393401806</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.3316393401806</v>
+        <v>631.7841389438281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1844.338003964586</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.375487024174</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1117.109788417423</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>731.3215358191792</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>320.3356310295716</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>320.3356310295716</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218339</v>
@@ -6244,34 +6244,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="X26" t="n">
         <v>2621.077176004519</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.937844028707</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3252.789632268996</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="C28" t="n">
-        <v>3083.853449341089</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="D28" t="n">
-        <v>2933.736809928753</v>
+        <v>267.487409559729</v>
       </c>
       <c r="E28" t="n">
-        <v>2785.82371634636</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>2638.93376884845</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y28" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993392</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="V29" t="n">
-        <v>3093.488074938325</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W29" t="n">
-        <v>2740.71941966821</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.25366140713</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6563,7 +6563,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>445.4099384687676</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>445.4099384687676</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>445.4099384687676</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>445.4099384687676</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>445.4099384687676</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>277.7071018434865</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>131.4899150613443</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596504</v>
@@ -6657,16 +6657,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V31" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W31" t="n">
-        <v>666.2025176122977</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X31" t="n">
-        <v>666.2025176122977</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y31" t="n">
-        <v>445.4099384687676</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694471</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.60683175406</v>
+        <v>926.2736972002929</v>
       </c>
       <c r="D32" t="n">
-        <v>764.3411331473092</v>
+        <v>568.0079985935424</v>
       </c>
       <c r="E32" t="n">
-        <v>764.3411331473092</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F32" t="n">
-        <v>353.3552283577016</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>353.3552283577016</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,7 +6712,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939507</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218339</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>507.434506214537</v>
+        <v>758.526868257424</v>
       </c>
       <c r="V34" t="n">
-        <v>507.434506214537</v>
+        <v>503.8423800515371</v>
       </c>
       <c r="W34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.434506214537</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D35" t="n">
         <v>1320.35562273557</v>
@@ -6934,25 +6934,25 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3197.788768583745</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>3197.788768583745</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W35" t="n">
-        <v>3197.788768583745</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X35" t="n">
-        <v>2824.323010322666</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3143.95735677893</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>2975.021173851023</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>2975.021173851023</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>2827.10808026863</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>2680.21813277072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2617.448119005311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.60582160917</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.60582160917</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y37" t="n">
-        <v>3325.60582160917</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7177,16 +7177,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7213,13 +7213,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>290.4564109463973</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>290.4564109463973</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>290.4564109463973</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>290.4564109463973</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>290.4564109463973</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>122.7535743211163</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7368,16 +7368,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181845</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181845</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X40" t="n">
-        <v>692.8974549201672</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y40" t="n">
-        <v>472.1048757766371</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926365</v>
+        <v>1067.881466499387</v>
       </c>
       <c r="F41" t="n">
-        <v>298.629863103029</v>
+        <v>656.8955617097795</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8231115547759</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7411,25 +7411,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.9915598002983</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>242.0553768723914</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>242.0553768723914</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>242.0553768723914</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>242.0553768723914</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>74.35254024711037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7569,52 +7569,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>778.3166113003119</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438285</v>
+        <v>778.3166113003119</v>
       </c>
       <c r="V43" t="n">
-        <v>631.7841389438285</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W43" t="n">
-        <v>631.7841389438285</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X43" t="n">
-        <v>631.7841389438285</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.9915598002983</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696102</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C44" t="n">
-        <v>994.1614947556907</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D44" t="n">
-        <v>635.8957961489402</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>250.107543550696</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>250.107543550696</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>250.107543550696</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.09759726723</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997116</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736036</v>
+        <v>2335.044173282495</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760224</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>779.5499576029378</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>524.8654693970509</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W46" t="n">
-        <v>235.4482993600903</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X46" t="n">
-        <v>235.4482993600903</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>277.1926060501026</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>30.31028741218779</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>2.486899575160351e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.03060314331834</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>132.445331621038</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>73.49127351643222</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,31 +22746,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>213.1539192908532</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046873</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543627</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>293.8395519128307</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510928</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>136.3138029867177</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715727</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22947,28 +22947,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819326</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>133.2999848559907</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.866934183844</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>305.2161370718016</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>105.7925343761011</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15.36802037830726</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.8938091619487</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.7020862222432</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.86859442887686</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>57.30828310159423</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>179.7382603152888</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>296.7574771839114</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>144.5880072242922</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.81232684696192</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>126.4919521192247</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>53.35974539096668</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.93497457133182</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>136.2216706576739</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>216.1322024467383</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -24022,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>111.5677777885842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6609984804416</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,25 +24177,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>106.001820158168</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>334.3043346825606</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>82.50893465881839</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.7481079858644</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>43.32248493590612</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>201.2133759749655</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7439527351652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>113.4942307093272</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>113.0913093320073</v>
       </c>
       <c r="V29" t="n">
-        <v>301.8736594056184</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>32.02439976696884</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>274.1188180198276</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>221.6341408927628</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>10.63308358105746</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>21.36765304399859</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>125.4753020204599</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>124.4562894637316</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>119.0142165604612</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.8834946312736</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>274.1188180198276</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>222.7020862222421</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>89.07597160427723</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25608,13 +25608,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>231.3874481305228</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>121.0498792159538</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>136.9929953375431</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>78.40425870347531</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>112.848291539993</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25918,19 +25918,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>66.06829602260825</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>146.2881604725181</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>416599.1113786226</v>
+        <v>822602.4434218735</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416599.1113786229</v>
+        <v>822602.4434218735</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>645633.2065222078</v>
+        <v>822602.4434218735</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218736</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166639.644551449</v>
+        <v>329040.9773687489</v>
       </c>
       <c r="C2" t="n">
-        <v>166639.6445514491</v>
+        <v>329040.977368749</v>
       </c>
       <c r="D2" t="n">
-        <v>258253.282608883</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="E2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="F2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="G2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="H2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="I2" t="n">
+        <v>329040.9773687494</v>
+      </c>
+      <c r="J2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="I2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="J2" t="n">
-        <v>329040.9773687492</v>
-      </c>
       <c r="K2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="L2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="M2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="N2" t="n">
         <v>329040.9773687494</v>
       </c>
       <c r="O2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687494</v>
       </c>
       <c r="P2" t="n">
         <v>329040.9773687493</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487665</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669092</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127041</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608602</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061227</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>584.646989006123</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469141</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
@@ -26456,7 +26456,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26496,13 +26496,13 @@
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481840.8584990823</v>
+        <v>-1112296.351287412</v>
       </c>
       <c r="C6" t="n">
-        <v>109516.0440217628</v>
+        <v>216448.3944401796</v>
       </c>
       <c r="D6" t="n">
-        <v>-198888.6461210027</v>
+        <v>216448.3944401802</v>
       </c>
       <c r="E6" t="n">
-        <v>-21880.75594855948</v>
+        <v>250075.9944401801</v>
       </c>
       <c r="F6" t="n">
-        <v>254149.98981835</v>
+        <v>250075.9944401804</v>
       </c>
       <c r="G6" t="n">
-        <v>254149.9898183499</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="H6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="I6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="J6" t="n">
-        <v>205085.0450898053</v>
+        <v>32544.79204290303</v>
       </c>
       <c r="K6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="L6" t="n">
-        <v>164406.6116870795</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="M6" t="n">
-        <v>182058.6372022638</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="N6" t="n">
-        <v>254149.9898183499</v>
+        <v>250075.9944401804</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183495</v>
+        <v>250075.9944401804</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.99444018</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,16 +26813,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247799</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556135</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761288</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>831.4014554022917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761289</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761288</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32107,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32156,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32174,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33751,7 +33751,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970259</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
         <v>157.2826706286436</v>
@@ -35819,13 +35819,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525815</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
